--- a/docs/suis_qos_pub.xlsx
+++ b/docs/suis_qos_pub.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6980E-C4E7-4BE2-8121-BC55007EC4DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA621FA-E3FB-4CCA-877D-D6BA51F05B3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
